--- a/on-admin/Paper_1711502821_Wahyu Desena/Pengujian.xlsx
+++ b/on-admin/Paper_1711502821_Wahyu Desena/Pengujian.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -40,6 +40,30 @@
   </si>
   <si>
     <t>k=5 w=2</t>
+  </si>
+  <si>
+    <t>k=2 w=3</t>
+  </si>
+  <si>
+    <t>k=2 w=4</t>
+  </si>
+  <si>
+    <t>k=3 w=2</t>
+  </si>
+  <si>
+    <t>k=3 w=5</t>
+  </si>
+  <si>
+    <t>k=4 w=2</t>
+  </si>
+  <si>
+    <t>k=4 w=5</t>
+  </si>
+  <si>
+    <t>k=5 w=3</t>
+  </si>
+  <si>
+    <t>k=5 w=4</t>
   </si>
 </sst>
 </file>
@@ -111,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -160,11 +184,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -173,38 +241,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,349 +584,742 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G18"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75">
+    <row r="1" spans="2:15" ht="15.75">
       <c r="C1" s="1">
         <v>1513500346</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:15">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="4" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="2:15" ht="25.5">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="I3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="L3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="N3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="2">
         <v>1511500025</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.22189999999999999</v>
+      </c>
+      <c r="H4" s="6">
         <v>0.2059</v>
       </c>
-      <c r="E4" s="7">
+      <c r="I4" s="6">
+        <v>0.19309999999999999</v>
+      </c>
+      <c r="J4" s="6">
+        <v>8.77E-2</v>
+      </c>
+      <c r="K4" s="6">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="F4" s="7">
-        <v>0.35709999999999997</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="L4" s="6">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="M4" s="6">
         <v>3.1699999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
+      <c r="N4" s="6">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="O4" s="6">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>1511500082</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.3654</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.2361</v>
+      </c>
+      <c r="H5" s="4">
         <v>0.2215</v>
       </c>
-      <c r="E5" s="5">
+      <c r="I5" s="6">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="J5" s="6">
+        <v>9.2299999999999993E-2</v>
+      </c>
+      <c r="K5" s="4">
         <v>8.5900000000000004E-2</v>
       </c>
-      <c r="F5" s="5">
-        <v>0.3654</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="L5" s="6">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="M5" s="4">
         <v>3.8699999999999998E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="N5" s="6">
+        <v>3.85E-2</v>
+      </c>
+      <c r="O5" s="6">
+        <v>3.0300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>1511500132</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.40629999999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.3654</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.2064</v>
+      </c>
+      <c r="H6" s="4">
         <v>0.1908</v>
       </c>
-      <c r="E6" s="5">
+      <c r="I6" s="6">
+        <v>0.1875</v>
+      </c>
+      <c r="J6" s="6">
+        <v>7.46E-2</v>
+      </c>
+      <c r="K6" s="4">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="F6" s="5">
-        <v>0.3654</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="L6" s="6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M6" s="4">
         <v>3.9300000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="N6" s="6">
+        <v>4.02E-2</v>
+      </c>
+      <c r="O6" s="6">
+        <v>3.27E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
       <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>1511500157</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.37290000000000001</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="H7" s="8">
         <v>0.2137</v>
       </c>
-      <c r="E7" s="12">
+      <c r="I7" s="6">
+        <v>0.2571</v>
+      </c>
+      <c r="J7" s="6">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="K7" s="8">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="F7" s="12">
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="L7" s="6">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="M7" s="8">
         <v>4.4200000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="N7" s="7">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="O7" s="6">
+        <v>4.3299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="2">
         <v>1511500199</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="7">
+        <v>0.47220000000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.2412</v>
+      </c>
+      <c r="H8" s="4">
         <v>0.1739</v>
       </c>
-      <c r="E8" s="5">
+      <c r="I8" s="6">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="K8" s="4">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="F8" s="6">
-        <v>0.38</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="L8" s="6">
+        <v>6.83E-2</v>
+      </c>
+      <c r="M8" s="4">
         <v>3.9600000000000003E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="N8" s="6">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="O8" s="6">
+        <v>4.2900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
       <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" s="2">
         <v>1511500207</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
+        <v>0.3649</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H9" s="4">
         <v>0.23619999999999999</v>
       </c>
-      <c r="E9" s="11">
+      <c r="I9" s="6">
+        <v>0.25230000000000002</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.1051</v>
+      </c>
+      <c r="K9" s="7">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="F9" s="5">
-        <v>0.40429999999999999</v>
-      </c>
-      <c r="G9" s="11">
+      <c r="L9" s="6">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="M9" s="7">
         <v>5.3400000000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="N9" s="6">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="3">
         <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>1511500215</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
+        <v>0.3846</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.36509999999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.3654</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.20630000000000001</v>
+      </c>
+      <c r="H10" s="4">
         <v>0.2044</v>
       </c>
-      <c r="E10" s="5">
+      <c r="I10" s="6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="J10" s="6">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K10" s="4">
         <v>6.5799999999999997E-2</v>
       </c>
-      <c r="F10" s="5">
-        <v>0.3654</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="L10" s="6">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="M10" s="4">
         <v>3.9699999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="N10" s="6">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="O10" s="6">
+        <v>3.2899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="2">
         <v>1511500231</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
+        <v>0.3846</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.377</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="H11" s="4">
         <v>0.21640000000000001</v>
       </c>
-      <c r="E11" s="5">
+      <c r="I11" s="6">
+        <v>0.21929999999999999</v>
+      </c>
+      <c r="J11" s="6">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="K11" s="4">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="F11" s="5">
-        <v>0.35289999999999999</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="L11" s="6">
+        <v>7.51E-2</v>
+      </c>
+      <c r="M11" s="4">
         <v>3.3399999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="N11" s="6">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="O11" s="6">
+        <v>3.1899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
       <c r="B12" s="3">
         <v>9</v>
       </c>
       <c r="C12" s="2">
         <v>1511500249</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="H12" s="6">
         <v>0.2109</v>
       </c>
-      <c r="E12" s="5">
+      <c r="I12" s="6">
+        <v>0.2155</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.1108</v>
+      </c>
+      <c r="K12" s="4">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="F12" s="11">
-        <v>0.45650000000000002</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="L12" s="6">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="M12" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="N12" s="6">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="O12" s="6">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
       <c r="B13" s="3">
         <v>10</v>
       </c>
       <c r="C13" s="2">
         <v>1511500264</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="7">
+        <v>0.3649</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.2477</v>
+      </c>
+      <c r="H13" s="7">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E13" s="5">
+      <c r="I13" s="6">
+        <v>0.2525</v>
+      </c>
+      <c r="J13" s="6">
+        <v>8.43E-2</v>
+      </c>
+      <c r="K13" s="4">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="F13" s="5">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="L13" s="6">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M13" s="4">
         <v>4.4600000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="N13" s="6">
+        <v>3.1E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <v>3.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
       <c r="B14" s="3">
         <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>1511500272</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
+        <v>0.40260000000000001</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.2074</v>
+      </c>
+      <c r="H14" s="4">
         <v>0.17330000000000001</v>
       </c>
-      <c r="E14" s="5">
+      <c r="I14" s="6">
+        <v>0.18490000000000001</v>
+      </c>
+      <c r="J14" s="6">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="K14" s="4">
         <v>6.88E-2</v>
       </c>
-      <c r="F14" s="5">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="L14" s="6">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="M14" s="4">
         <v>3.6600000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="N14" s="6">
+        <v>3.49E-2</v>
+      </c>
+      <c r="O14" s="6">
+        <v>2.8299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="3">
         <v>12</v>
       </c>
       <c r="C15" s="2">
         <v>1511500298</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="8">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.35589999999999999</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="H15" s="8">
         <v>0.2326</v>
       </c>
-      <c r="E15" s="12">
+      <c r="I15" s="7">
+        <v>0.2772</v>
+      </c>
+      <c r="J15" s="6">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="K15" s="8">
         <v>8.4400000000000003E-2</v>
       </c>
-      <c r="F15" s="12">
-        <v>0.44440000000000002</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="L15" s="7">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="M15" s="8">
         <v>4.6800000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="N15" s="6">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="O15" s="6">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
       <c r="B16" s="3">
         <v>13</v>
       </c>
       <c r="C16" s="2">
         <v>1511500314</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
+        <v>0.3367</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.33779999999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.23730000000000001</v>
+      </c>
+      <c r="H16" s="4">
         <v>0.20880000000000001</v>
       </c>
-      <c r="E16" s="5">
+      <c r="I16" s="6">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="J16" s="6">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="K16" s="4">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="F16" s="5">
-        <v>0.36070000000000002</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="L16" s="6">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="M16" s="5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1">
-      <c r="B17" s="10" t="s">
+      <c r="N16" s="6">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="O16" s="6">
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15" customHeight="1">
+      <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13">
+      <c r="C17" s="15"/>
+      <c r="D17" s="11">
+        <v>0.47220000000000001</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="H17" s="11">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E17" s="13">
+      <c r="I17" s="11">
+        <v>0.2772</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.1108</v>
+      </c>
+      <c r="K17" s="11">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="F17" s="13">
-        <v>0.45650000000000002</v>
-      </c>
-      <c r="G17" s="13">
+      <c r="L17" s="11">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="M17" s="11">
         <v>5.3400000000000003E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="N17" s="11">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="O17" s="11">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="22.5" customHeight="1">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D2:G2"/>
+  <mergeCells count="16">
+    <mergeCell ref="D2:O2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="M17:M18"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="N17:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
